--- a/excel_analysis/nepse outline.xlsx
+++ b/excel_analysis/nepse outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive - ahqb\Pukar Sharma\My Desktop\Stock Market Analysis\NEPSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\gitdemo\AdvancedNEPSE\excel_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EBE663-47D7-48D9-9D77-6924477F6A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873111D-F692-4A86-A455-70C7BA2F2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="228" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="1" r:id="rId1"/>
@@ -465,37 +465,11 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -557,6 +531,39 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -567,13 +574,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3118,20 +3118,20 @@
   <autoFilter ref="C3:Q25" xr:uid="{06AF2333-7BFD-4614-ADA2-9B81E331D208}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{E1A292DA-0E6E-42D8-ADD8-188800BC3205}" name="Month-" totalsRowLabel="Monthly average"/>
-    <tableColumn id="2" xr3:uid="{3AE553CD-B203-461B-9F91-EA40F8088CF7}" name="Jan" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{2996653D-9DA2-47FE-95DA-A1B8649CD20D}" name="Feb" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{5699D38D-F259-4726-AAAA-031C4ABDF5B6}" name="Mar" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{F6E39866-E897-4325-9C12-7C1032F77ADE}" name="Apr" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{C787AE25-3003-4BC7-9724-F298716B0178}" name="May" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{7962F693-C966-4A35-AA17-38B8E317A33F}" name="Jun" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{A3F268D2-DB26-4EDA-A25E-757C235B38A8}" name="Jul" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{70255B97-EAD7-4F73-8E29-9A4A25D39D33}" name="Aug" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{CF289C80-0DA1-4C92-ABF6-CB4D9D19D016}" name="Sep" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{3E8997FC-C6D7-4940-B0C7-9BDE5055C260}" name="Oct" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{FCA4AF4E-E6D8-429E-95CD-EBC8F2BF924D}" name="Nov" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{28EF217B-AF3D-47AB-97CA-CC032CCE28B4}" name="Dec" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{CE7C4BAF-E226-4170-B4DC-B3E603C3BA0C}" name="Yearly Average" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="15" xr3:uid="{CFFFF854-8E54-4173-91AC-C22B3A417A22}" name="Yearly sum" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{3AE553CD-B203-461B-9F91-EA40F8088CF7}" name="Jan" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{2996653D-9DA2-47FE-95DA-A1B8649CD20D}" name="Feb" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{5699D38D-F259-4726-AAAA-031C4ABDF5B6}" name="Mar" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{F6E39866-E897-4325-9C12-7C1032F77ADE}" name="Apr" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{C787AE25-3003-4BC7-9724-F298716B0178}" name="May" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{7962F693-C966-4A35-AA17-38B8E317A33F}" name="Jun" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{A3F268D2-DB26-4EDA-A25E-757C235B38A8}" name="Jul" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{70255B97-EAD7-4F73-8E29-9A4A25D39D33}" name="Aug" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{CF289C80-0DA1-4C92-ABF6-CB4D9D19D016}" name="Sep" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3E8997FC-C6D7-4940-B0C7-9BDE5055C260}" name="Oct" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{FCA4AF4E-E6D8-429E-95CD-EBC8F2BF924D}" name="Nov" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{28EF217B-AF3D-47AB-97CA-CC032CCE28B4}" name="Dec" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{CE7C4BAF-E226-4170-B4DC-B3E603C3BA0C}" name="Yearly Average" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{CFFFF854-8E54-4173-91AC-C22B3A417A22}" name="Yearly sum" totalsRowFunction="average" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3416,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3672,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DC02A4-5B4C-4DD9-A3B2-7DC4058A8632}">
   <dimension ref="C3:W268"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5478,7 +5478,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D5:O25">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/excel_analysis/nepse outline.xlsx
+++ b/excel_analysis/nepse outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\gitdemo\AdvancedNEPSE\excel_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873111D-F692-4A86-A455-70C7BA2F2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC4A310-D1EF-44AA-B9A2-7B86DB62D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="228" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Yearly Average</t>
   </si>
   <si>
-    <t>Yearly sum</t>
-  </si>
-  <si>
     <t>Monthly average</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve">12 month closing </t>
+  </si>
+  <si>
+    <t>Yearly return</t>
   </si>
 </sst>
 </file>
@@ -465,39 +465,7 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -531,6 +499,38 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -3114,24 +3114,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{06AF2333-7BFD-4614-ADA2-9B81E331D208}" name="Table3" displayName="Table3" ref="C3:Q26" totalsRowCount="1">
-  <autoFilter ref="C3:Q25" xr:uid="{06AF2333-7BFD-4614-ADA2-9B81E331D208}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{06AF2333-7BFD-4614-ADA2-9B81E331D208}" name="Table3" displayName="Table3" ref="C3:Q27" totalsRowCount="1">
+  <autoFilter ref="C3:Q26" xr:uid="{06AF2333-7BFD-4614-ADA2-9B81E331D208}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{E1A292DA-0E6E-42D8-ADD8-188800BC3205}" name="Month-" totalsRowLabel="Monthly average"/>
-    <tableColumn id="2" xr3:uid="{3AE553CD-B203-461B-9F91-EA40F8088CF7}" name="Jan" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{2996653D-9DA2-47FE-95DA-A1B8649CD20D}" name="Feb" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{5699D38D-F259-4726-AAAA-031C4ABDF5B6}" name="Mar" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{F6E39866-E897-4325-9C12-7C1032F77ADE}" name="Apr" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{C787AE25-3003-4BC7-9724-F298716B0178}" name="May" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{7962F693-C966-4A35-AA17-38B8E317A33F}" name="Jun" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{A3F268D2-DB26-4EDA-A25E-757C235B38A8}" name="Jul" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{70255B97-EAD7-4F73-8E29-9A4A25D39D33}" name="Aug" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{CF289C80-0DA1-4C92-ABF6-CB4D9D19D016}" name="Sep" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{3E8997FC-C6D7-4940-B0C7-9BDE5055C260}" name="Oct" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{FCA4AF4E-E6D8-429E-95CD-EBC8F2BF924D}" name="Nov" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{28EF217B-AF3D-47AB-97CA-CC032CCE28B4}" name="Dec" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{CE7C4BAF-E226-4170-B4DC-B3E603C3BA0C}" name="Yearly Average" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="15" xr3:uid="{CFFFF854-8E54-4173-91AC-C22B3A417A22}" name="Yearly sum" totalsRowFunction="average" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{3AE553CD-B203-461B-9F91-EA40F8088CF7}" name="Jan" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{2996653D-9DA2-47FE-95DA-A1B8649CD20D}" name="Feb" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{5699D38D-F259-4726-AAAA-031C4ABDF5B6}" name="Mar" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{F6E39866-E897-4325-9C12-7C1032F77ADE}" name="Apr" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{C787AE25-3003-4BC7-9724-F298716B0178}" name="May" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{7962F693-C966-4A35-AA17-38B8E317A33F}" name="Jun" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{A3F268D2-DB26-4EDA-A25E-757C235B38A8}" name="Jul" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{70255B97-EAD7-4F73-8E29-9A4A25D39D33}" name="Aug" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{CF289C80-0DA1-4C92-ABF6-CB4D9D19D016}" name="Sep" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{3E8997FC-C6D7-4940-B0C7-9BDE5055C260}" name="Oct" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{FCA4AF4E-E6D8-429E-95CD-EBC8F2BF924D}" name="Nov" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{28EF217B-AF3D-47AB-97CA-CC032CCE28B4}" name="Dec" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{CE7C4BAF-E226-4170-B4DC-B3E603C3BA0C}" name="Yearly Average" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{CFFFF854-8E54-4173-91AC-C22B3A417A22}" name="Yearly return" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3670,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DC02A4-5B4C-4DD9-A3B2-7DC4058A8632}">
-  <dimension ref="C3:W268"/>
+  <dimension ref="C3:W269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3728,7 +3728,7 @@
         <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
@@ -4777,81 +4777,86 @@
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6">
         <f>SUBTOTAL(101,Table3[Jan])</f>
-        <v>1.3361904761904761E-2</v>
-      </c>
-      <c r="E26" s="6">
+        <v>1.339090909090909E-2</v>
+      </c>
+      <c r="E27" s="6">
         <f>SUBTOTAL(101,Table3[Feb])</f>
         <v>1.2999999999999998E-2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <f>SUBTOTAL(101,Table3[Mar])</f>
         <v>-2.3628571428571429E-2</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <f>SUBTOTAL(101,Table3[Apr])</f>
         <v>3.4952380952380964E-2</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <f>SUBTOTAL(101,Table3[May])</f>
         <v>8.4476190476190476E-3</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <f>SUBTOTAL(101,Table3[Jun])</f>
         <v>1.8585714285714285E-2</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="6">
         <f>SUBTOTAL(101,Table3[Jul])</f>
         <v>6.3085714285714273E-2</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K27" s="6">
         <f>SUBTOTAL(101,Table3[Aug])</f>
         <v>-7.7952380952380947E-3</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <f>SUBTOTAL(101,Table3[Sep])</f>
         <v>-1.1047619047619047E-2</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M27" s="6">
         <f>SUBTOTAL(101,Table3[Oct])</f>
         <v>3.2761904761904764E-3</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N27" s="6">
         <f>SUBTOTAL(101,Table3[Nov])</f>
         <v>-1.4761904761904595E-4</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O27" s="6">
         <f>SUBTOTAL(101,Table3[Dec])</f>
         <v>2.5871428571428566E-2</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P27" s="6">
         <f>SUBTOTAL(109,Table3[Yearly Average])</f>
         <v>0.24143333333333331</v>
       </c>
-      <c r="Q26" s="6">
-        <f>SUBTOTAL(101,Table3[Yearly sum])</f>
+      <c r="Q27" s="6">
+        <f>SUBTOTAL(101,Table3[Yearly return])</f>
         <v>0.13796190476190479</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.3">
@@ -4872,22 +4877,26 @@
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="E29" s="11"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.3">
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="D31" s="6"/>
       <c r="E31" s="11"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -4913,81 +4922,90 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D45" s="6"/>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="E49" s="11"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="6"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
@@ -5004,8 +5022,8 @@
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C62" s="6"/>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="6"/>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
@@ -5047,10 +5065,10 @@
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="7"/>
+      <c r="C76" s="6"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="6"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C78" s="6"/>
@@ -5064,23 +5082,23 @@
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="6"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="6"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="6"/>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="6"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="6"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="6"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="6"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="6"/>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="6"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="6"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="6"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
@@ -5100,14 +5118,14 @@
     <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="6"/>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="6"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="6"/>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="6"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
@@ -5121,8 +5139,8 @@
     <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="6"/>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="6"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
@@ -5136,8 +5154,8 @@
     <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="6"/>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="6"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
@@ -5151,17 +5169,17 @@
     <row r="122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="6"/>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="6"/>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="6"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="6"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="6"/>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="6"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
@@ -5172,14 +5190,14 @@
     <row r="132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="6"/>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="6"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="6"/>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="6"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
@@ -5193,11 +5211,11 @@
     <row r="143" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="6"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="6"/>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="6"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="6"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
@@ -5208,14 +5226,14 @@
     <row r="150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="6"/>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="6"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="6"/>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="6"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
@@ -5223,8 +5241,8 @@
     <row r="157" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="6"/>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="6"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
@@ -5238,14 +5256,14 @@
     <row r="163" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="6"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="6"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="6"/>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="6"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="6"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="6"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
@@ -5283,8 +5301,8 @@
     <row r="182" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" s="6"/>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="6"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
@@ -5292,11 +5310,11 @@
     <row r="186" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="6"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="6"/>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="6"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="6"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C191" s="6"/>
@@ -5322,8 +5340,8 @@
     <row r="198" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C198" s="6"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="6"/>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="6"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C201" s="6"/>
@@ -5331,8 +5349,8 @@
     <row r="202" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C202" s="6"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" s="6"/>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="6"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C205" s="6"/>
@@ -5349,26 +5367,26 @@
     <row r="209" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C209" s="6"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="6"/>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="6"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C212" s="6"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="6"/>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="6"/>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="6"/>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="6"/>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" s="6"/>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="6"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="6"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="6"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="6"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="6"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C227" s="6"/>
@@ -5412,8 +5430,8 @@
     <row r="240" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C240" s="6"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C242" s="6"/>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="6"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C243" s="6"/>
@@ -5427,29 +5445,29 @@
     <row r="246" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C246" s="6"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C248" s="6"/>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C250" s="6"/>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="6"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="6"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C251" s="6"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C253" s="6"/>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="6"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C254" s="6"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C256" s="6"/>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="6"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C257" s="6"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C259" s="6"/>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" s="6"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C260" s="6"/>
@@ -5457,8 +5475,8 @@
     <row r="261" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C261" s="6"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C263" s="6"/>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" s="6"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C264" s="6"/>
@@ -5474,11 +5492,14 @@
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C268" s="6"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C269" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D5:O25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5527,7 +5548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE040089-98EC-4582-846C-3D3C999AFCF2}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="71" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -5555,7 +5576,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C1" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -5582,66 +5603,66 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>2055.5300000000002</v>
@@ -5661,7 +5682,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="11">
         <f>(N3-N4)/N3</f>
@@ -5680,7 +5701,7 @@
         <v>1.2906646947502686E-2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1849.79</v>
@@ -5688,11 +5709,11 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="10"/>
       <c r="M5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1908</v>
@@ -5700,11 +5721,11 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10"/>
       <c r="M6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>2029</v>
@@ -5712,11 +5733,11 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="10"/>
       <c r="M7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>2029</v>
@@ -5724,63 +5745,63 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="10"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="10"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="10"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="10"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="10"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="10"/>
       <c r="M16" s="2"/>
